--- a/biology/Médecine/Percussion_(médecine)/Percussion_(médecine).xlsx
+++ b/biology/Médecine/Percussion_(médecine)/Percussion_(médecine).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Percussion_(m%C3%A9decine)</t>
+          <t>Percussion_(médecine)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La percussion, en médecine, est une technique utilisant l'analyse de la tonalité du son produit par la percussion douce, effectuée par le médecin, de différents endroits du corps d'un patient (thorax et abdomen par exemple). C’est, avec l’inspection, la palpation et l’auscultation, l’un des quatre temps de l’examen clinique général (ou examen physique, au lit du malade).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Percussion_(m%C3%A9decine)</t>
+          <t>Percussion_(médecine)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette méthode ancestrale était employée par les vignerons pour distinguer les tonneaux pleins des vides ou même pour estimer le volume de leur contenu.
 C’est le médecin autrichien Leopold Auenbrugger (1722-1809) qui eut le premier l’idée de son application en médecine. Plus tard, Jean-Nicolas Corvisart, médecin de Napoléon Bonaparte, découvrit et traduisit les travaux d’Auenbrugger. Pierre Adolphe Piorry et Joseph Škoda répandirent et raffinèrent la sémiologie de la percussion dans diverses affections cardiaques et pulmonaires.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Percussion_(m%C3%A9decine)</t>
+          <t>Percussion_(médecine)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il y a deux manières de percuter :
 La percussion immédiate consiste à frapper directement avec l'extrémité des doigts recourbés une zone du corps ;
@@ -553,10 +569,80 @@
 bruits tympaniques caractérisés par leur résonance (sensation d’écho). On parle de tympanisme pour les désigner
 bruits mats avec au contraire absence de résonance. Le substantif correspondant est la matité.
 La présence d’une masse solide sous la surface produit un son mat. Une structure creuse et remplie d’air rendra au contraire une sonorité tympanique.
-Percussion du thorax
-Elle est utilisée dans le diagnostic clinique du pneumothorax, de l’emphysème, des pneumonies lobaires et des épanchements pleuraux.
-Percussion de l’abdomen
-Elle permet d’estimer l’augmentation de volume d’un organe plein comme le foie ou la rate et de détecter la présence de liquide dans la cavité péritonéale par la modification du tympanisme abdominal physiologique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Percussion_(médecine)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Percussion_(m%C3%A9decine)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Technique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Percussion du thorax</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est utilisée dans le diagnostic clinique du pneumothorax, de l’emphysème, des pneumonies lobaires et des épanchements pleuraux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Percussion_(médecine)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Percussion_(m%C3%A9decine)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Technique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Percussion de l’abdomen</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle permet d’estimer l’augmentation de volume d’un organe plein comme le foie ou la rate et de détecter la présence de liquide dans la cavité péritonéale par la modification du tympanisme abdominal physiologique.
 </t>
         </is>
       </c>
